--- a/2/Korrelationskoeffizient.xlsx
+++ b/2/Korrelationskoeffizient.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,13 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mouse" sheetId="2" r:id="rId1"/>
     <sheet name="Touchpad" sheetId="3" r:id="rId2"/>
-    <sheet name="Abweichungen" sheetId="8" r:id="rId3"/>
+    <sheet name="Abweichungen_von_Mittelwert" sheetId="8" r:id="rId3"/>
     <sheet name="Korrelationskoeffizienten" sheetId="7" r:id="rId4"/>
+    <sheet name="Regressionskoeffizienten" sheetId="9" r:id="rId5"/>
+    <sheet name="Abweichungen_von_Regression" sheetId="11" r:id="rId6"/>
+    <sheet name="t-Statistiken" sheetId="10" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">Mouse!$A$1:$B$31</definedName>
@@ -31,18 +34,18 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="Abfrage - Testdaten_Mouse" description="Verbindung mit der Abfrage 'Testdaten_Mouse' in der Arbeitsmappe." type="5" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Abfrage - Testdaten_Mouse" description="Verbindung mit der Abfrage 'Testdaten_Mouse' in der Arbeitsmappe." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Testdaten_Mouse;Extended Properties=&quot;&quot;" command="SELECT * FROM [Testdaten_Mouse]"/>
   </connection>
-  <connection id="2" keepAlive="1" name="Abfrage - Testdaten_Touchpad" description="Verbindung mit der Abfrage 'Testdaten_Touchpad' in der Arbeitsmappe." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" keepAlive="1" name="Abfrage - Testdaten_Touchpad" description="Verbindung mit der Abfrage 'Testdaten_Touchpad' in der Arbeitsmappe." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Testdaten_Touchpad;Extended Properties=&quot;&quot;" command="SELECT * FROM [Testdaten_Touchpad]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -54,9 +57,6 @@
   </si>
   <si>
     <t>Mouse</t>
-  </si>
-  <si>
-    <t>Eingabegerät</t>
   </si>
   <si>
     <t>Touchpad</t>
@@ -73,11 +73,32 @@
   <si>
     <t>AVG_Touchpad</t>
   </si>
+  <si>
+    <t>Bestimmtheitsmaß</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>b0</t>
+  </si>
+  <si>
+    <t>Eingabemethode</t>
+  </si>
+  <si>
+    <t>SE(b1)</t>
+  </si>
+  <si>
+    <t>MSE</t>
+  </si>
+  <si>
+    <t>QS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -136,7 +157,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExterneDaten_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExterneDaten_1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="3">
     <queryTableFields count="2">
       <queryTableField id="1" name="ID" tableColumnId="1"/>
@@ -147,7 +168,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExterneDaten_2" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExterneDaten_2" connectionId="2" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="3">
     <queryTableFields count="2">
       <queryTableField id="1" name="ID" tableColumnId="1"/>
@@ -158,22 +179,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Testdaten_Mouse" displayName="Testdaten_Mouse" ref="A1:B31" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Testdaten_Mouse" displayName="Testdaten_Mouse" ref="A1:B31" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B31" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="ID" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="AVG" queryTableFieldId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="ID" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="AVG" queryTableFieldId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Testdaten_Touchpad" displayName="Testdaten_Touchpad" ref="A1:B31" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Testdaten_Touchpad" displayName="Testdaten_Touchpad" ref="A1:B31" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B31" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="ID" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="AVG" queryTableFieldId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" uniqueName="1" name="ID" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" uniqueName="2" name="AVG" queryTableFieldId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -475,11 +496,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -745,10 +766,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1015,11 +1036,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1030,16 +1051,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1588,48 +1609,193 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <f xml:space="preserve"> (1/30 * SUMPRODUCT(Abweichungen!A2:A31,Abweichungen!B2:B31)) / (SQRT(1/30 * SUMPRODUCT(Abweichungen!A2:A31,Abweichungen!A2:A31)) * SQRT(1/30 * SUMPRODUCT(Abweichungen!B2:B31,Abweichungen!B2:B31)))</f>
+        <f xml:space="preserve"> (1/30 * SUMPRODUCT(Abweichungen_von_Mittelwert!A2:A31,Abweichungen_von_Mittelwert!B2:B31)) / (SQRT(1/30 * SUMPRODUCT(Abweichungen_von_Mittelwert!A2:A31,Abweichungen_von_Mittelwert!A2:A31)) * SQRT(1/30 * SUMPRODUCT(Abweichungen_von_Mittelwert!B2:B31,Abweichungen_von_Mittelwert!B2:B31)))</f>
         <v>0.86337732778113974</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <f>B2*B2</f>
+        <v>0.74542041012650162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <f xml:space="preserve"> (1/30 * SUMPRODUCT(Abweichungen!C2:C31,Abweichungen!D2:D31)) / (SQRT(1/30 * SUMPRODUCT(Abweichungen!C2:C31,Abweichungen!C2:C31)) * SQRT(1/30 * SUMPRODUCT(Abweichungen!D2:D31,Abweichungen!D2:D31)))</f>
+        <f xml:space="preserve"> (1/30 * SUMPRODUCT(Abweichungen_von_Mittelwert!C2:C31,Abweichungen_von_Mittelwert!D2:D31)) / (SQRT(1/30 * SUMPRODUCT(Abweichungen_von_Mittelwert!C2:C31,Abweichungen_von_Mittelwert!C2:C31)) * SQRT(1/30 * SUMPRODUCT(Abweichungen_von_Mittelwert!D2:D31,Abweichungen_von_Mittelwert!D2:D31)))</f>
         <v>0.92897293618625543</v>
+      </c>
+      <c r="C3">
+        <f>B3*B3</f>
+        <v>0.86299071616651257</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED58C00-F276-4FF5-B33F-39F62A3AABFD}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <f>(SUMPRODUCT(Abweichungen_von_Mittelwert!A2:A31,Abweichungen_von_Mittelwert!B2:B31)) / (SUMPRODUCT(Abweichungen_von_Mittelwert!A2:A31,Abweichungen_von_Mittelwert!A2:A31))</f>
+        <v>89.049714285714302</v>
+      </c>
+      <c r="C2">
+        <f>AVERAGE(Testdaten_Mouse[AVG])-Regressionskoeffizienten!B2*AVERAGE(Testdaten_Mouse[ID])</f>
+        <v>172.78266666666661</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <f>(SUMPRODUCT(Abweichungen_von_Mittelwert!C2:C31,Abweichungen_von_Mittelwert!D2:D31)) / (SUMPRODUCT(Abweichungen_von_Mittelwert!C2:C31,Abweichungen_von_Mittelwert!C2:C31))</f>
+        <v>122.40571428571428</v>
+      </c>
+      <c r="C3">
+        <f>AVERAGE(Testdaten_Touchpad[AVG]) - Regressionskoeffizienten!B3*AVERAGE(Testdaten_Touchpad[ID])</f>
+        <v>132.20000000000016</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E15490AA-0F98-415A-B064-3136318F0F2C}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0AA115-C813-4D18-A23C-34439C37104F}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
